--- a/data/case1/14/Q2_13.xlsx
+++ b/data/case1/14/Q2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.092138941749958292</v>
+        <v>0.095493383854034164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999589734898</v>
+        <v>-0.0059999999672299964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999683431042</v>
+        <v>-0.0039999999749298354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999395408139</v>
+        <v>-0.0079999999527302634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999711609604</v>
+        <v>-0.0029999999787824194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999735968998</v>
+        <v>0.054263324164343985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999195787836</v>
+        <v>-0.0099999999385858018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999199709144</v>
+        <v>-0.009999999935868864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999756263875</v>
+        <v>-0.0019999999748119279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.020925413878620347</v>
+        <v>-0.0019999999710478278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999711201042</v>
+        <v>-0.0029999999652323694</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999677336469</v>
+        <v>-0.0034999999617966182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999683558158</v>
+        <v>-0.0034999999580298535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999385531595</v>
+        <v>-0.007999999932845725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998663147238</v>
+        <v>-0.00099999996978628047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999813338221</v>
+        <v>-0.0019999999638051769</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999843021143</v>
+        <v>-0.0019999999628694809</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.020203305218752909</v>
+        <v>-0.0039999999519269025</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999723030477</v>
+        <v>-0.0039999999778115303</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999702065026</v>
+        <v>-0.0039999999759405824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999698823174</v>
+        <v>-0.003999999975679458</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999696140875</v>
+        <v>-0.0039999999754920523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999607184265</v>
+        <v>-0.0049999999677234896</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0099739982386388704</v>
+        <v>-0.019999999883599351</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999856517903</v>
+        <v>-0.019999999881900266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999696948549</v>
+        <v>-0.0024999999798573924</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999688963825</v>
+        <v>-0.0024999999796233574</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999689339631</v>
+        <v>-0.0019999999813506975</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999330923046</v>
+        <v>-0.0069999999541110469</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0065759301642978052</v>
+        <v>1.9425379887305638e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999295440318</v>
+        <v>0.017615383393732031</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999089064318</v>
+        <v>-0.0099999999380564475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999490945015</v>
+        <v>-0.0039999999701443301</v>
       </c>
     </row>
   </sheetData>
